--- a/beton_durci/fiche_evol_referentiel/Analyse_impact_nouveau_SMQ_Cerema_2026.xlsx
+++ b/beton_durci/fiche_evol_referentiel/Analyse_impact_nouveau_SMQ_Cerema_2026.xlsx
@@ -146,7 +146,7 @@
     <t xml:space="preserve">Modification du contenu du parcours d'un nouvel arrivant (avons-nous un document définissant cela au niveau ACF ou centre-est?)</t>
   </si>
   <si>
-    <t xml:space="preserve">rajout de la formation "être acteur de Coesion"</t>
+    <t xml:space="preserve">ajout de la formation "être acteur de Coesion"</t>
   </si>
   <si>
     <t xml:space="preserve">Informer le responsable de la formation d’un nouvel arrivant (chef de groupe?)</t>
@@ -185,12 +185,11 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF4000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Note 9 : chapitre 7.10 de la procédure essais&amp;mesures Centre-Est à mettre à jour par rapport à cette nouvelle exigence (renvoyer à l’InfoQ007)</t>
+      <t xml:space="preserve">Note 9 : présenter les nouvelles dispositions aux chargés d’essai et responsable d’essai</t>
     </r>
   </si>
   <si>
@@ -354,7 +353,7 @@
 · Les risques dont la responsabilité est de portée nationale sont traités par le secteur NCL.</t>
   </si>
   <si>
-    <t xml:space="preserve">Pas d’impact. Maintien de l’analyse des risques locale.</t>
+    <t xml:space="preserve">Pas d’impact. Maintien de l’analyse des risques locale (à confirmer avec Alexandre).</t>
   </si>
   <si>
     <t xml:space="preserve">§8.5 Audits internes
@@ -1153,7 +1152,7 @@
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1180,13 +1179,6 @@
       <b val="true"/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF4000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1300,12 +1292,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1321,7 +1317,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1341,7 +1337,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1365,11 +1361,11 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1389,7 +1385,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1413,14 +1409,6 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1441,7 +1429,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1513,7 +1501,7 @@
       <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF4000"/>
+      <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
@@ -1706,1860 +1694,1858 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M1048576"/>
+  <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H8" activeCellId="0" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="39.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="9.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="17.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="16.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="51.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="24.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="37.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="29.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="29.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="12.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="39.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="9.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="17.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="51.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="24.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="37.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="29.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="2" width="29.88"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="36.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11" t="s">
+    <row r="2" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11"/>
+      <c r="B2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="13" t="n">
+      <c r="D2" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14" t="n">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15" t="n">
         <v>45860</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-    </row>
-    <row r="3" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10"/>
-      <c r="B3" s="12" t="s">
+      <c r="I2" s="12"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+    </row>
+    <row r="3" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="11"/>
+      <c r="B3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="12" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="94" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
+    <row r="4" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11"/>
+      <c r="B4" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="12" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="15" t="n">
+      <c r="L4" s="16" t="n">
         <v>46056</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="36.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16"/>
-      <c r="B5" s="11" t="s">
+    <row r="5" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="17"/>
+      <c r="B5" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="12" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="11" t="s">
+      <c r="K5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="L5" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="17"/>
-      <c r="B6" s="11" t="s">
+    <row r="6" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="18"/>
+      <c r="B6" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="12" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="79.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="12" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="K7" s="20" t="s">
+      <c r="K7" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="286.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11" t="s">
+    <row r="8" customFormat="false" ht="272.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="12" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I8" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="L8" s="21" t="n">
+      <c r="L8" s="22" t="n">
         <v>46056</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="111.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="12" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="15" t="n">
+      <c r="J9" s="16" t="n">
         <v>46056</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="L9" s="21" t="n">
+      <c r="L9" s="22" t="n">
         <v>46056</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="71" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22"/>
-      <c r="B10" s="11" t="s">
+    <row r="10" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="23"/>
+      <c r="B10" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="12" t="s">
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="I10" s="18" t="s">
+      <c r="I10" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="K10" s="20" t="s">
+      <c r="K10" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="20" t="s">
+      <c r="L10" s="21" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11" t="s">
+    <row r="11" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="12" t="s">
+      <c r="D11" s="14"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="J11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="36.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11" t="s">
+    <row r="12" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="12" t="s">
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="J12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="50.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="12" t="s">
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="L13" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="269.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="12" t="s">
+      <c r="D14" s="14"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="13" t="s">
+      <c r="J14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="L14" s="12" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="68.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="12" t="s">
+      <c r="D15" s="14"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="J15" s="12" t="s">
+      <c r="J15" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="K15" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="L15" s="21" t="n">
+      <c r="L15" s="22" t="n">
         <v>46056</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="12" t="s">
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="I16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="11"/>
-    </row>
-    <row r="17" customFormat="false" ht="119.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11" t="s">
+      <c r="L16" s="12"/>
+    </row>
+    <row r="17" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11"/>
+      <c r="B17" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="12" t="s">
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J17" s="12" t="s">
+      <c r="J17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K17" s="11" t="s">
+      <c r="K17" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="L17" s="21" t="n">
+      <c r="L17" s="22" t="n">
         <v>46056</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-    </row>
-    <row r="19" s="29" customFormat="true" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="28"/>
-      <c r="B19" s="11" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+    </row>
+    <row r="19" s="1" customFormat="true" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="11" t="s">
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="J19" s="12" t="s">
+      <c r="J19" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="K19" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="L19" s="21" t="n">
+      <c r="L19" s="22" t="n">
         <v>46056</v>
       </c>
-      <c r="M19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="92.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="22"/>
-      <c r="B20" s="30" t="s">
+      <c r="A20" s="23"/>
+      <c r="B20" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="30" t="n">
+      <c r="D20" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="E20" s="14" t="n">
+      <c r="E20" s="15" t="n">
         <v>45964</v>
       </c>
-      <c r="F20" s="14" t="n">
+      <c r="F20" s="15" t="n">
         <v>45964</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="14" t="s">
+      <c r="J20" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="K20" s="11" t="s">
+      <c r="K20" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="L20" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="84.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="12" t="s">
+    <row r="21" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="11"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J21" s="14"/>
-      <c r="K21" s="11" t="s">
+      <c r="J21" s="15"/>
+      <c r="K21" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="L21" s="11"/>
-    </row>
-    <row r="22" customFormat="false" ht="24.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10"/>
-      <c r="B22" s="32" t="s">
+      <c r="L21" s="12"/>
+    </row>
+    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="11"/>
+      <c r="B22" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C22" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="D22" s="32" t="n">
+      <c r="D22" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="E22" s="34" t="n">
+      <c r="E22" s="33" t="n">
         <v>45863</v>
       </c>
-      <c r="F22" s="34" t="n">
+      <c r="F22" s="33" t="n">
         <v>45863</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="I22" s="12" t="s">
+      <c r="I22" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="J22" s="12" t="s">
+      <c r="J22" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K22" s="12" t="s">
+      <c r="K22" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="L22" s="21" t="n">
+      <c r="L22" s="22" t="n">
         <v>46056</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="48.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10"/>
-      <c r="B23" s="32" t="s">
+    <row r="23" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="11"/>
+      <c r="B23" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="D23" s="32" t="n">
+      <c r="D23" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="34" t="n">
+      <c r="E23" s="33" t="n">
         <v>45863</v>
       </c>
-      <c r="F23" s="34" t="n">
+      <c r="F23" s="33" t="n">
         <v>45863</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="J23" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K23" s="12" t="s">
+      <c r="K23" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="L23" s="21" t="n">
+      <c r="L23" s="22" t="n">
         <v>46056</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="133.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="D24" s="13" t="n">
+      <c r="D24" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="E24" s="14" t="n">
+      <c r="E24" s="15" t="n">
         <v>45974</v>
       </c>
-      <c r="F24" s="14" t="n">
+      <c r="F24" s="15" t="n">
         <v>45974</v>
       </c>
-      <c r="G24" s="11" t="s">
+      <c r="G24" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="I24" s="35" t="s">
+      <c r="I24" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="J24" s="12" t="s">
+      <c r="J24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="K24" s="12" t="s">
+      <c r="K24" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="L24" s="36" t="n">
+      <c r="L24" s="35" t="n">
         <v>46056</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="169.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D25" s="13" t="n">
+      <c r="D25" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="E25" s="14" t="n">
+      <c r="E25" s="15" t="n">
         <v>45964</v>
       </c>
-      <c r="F25" s="14" t="n">
+      <c r="F25" s="15" t="n">
         <v>45964</v>
       </c>
-      <c r="G25" s="37" t="s">
+      <c r="G25" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="J25" s="14" t="n">
+      <c r="J25" s="15" t="n">
         <v>45965</v>
       </c>
-      <c r="K25" s="12" t="s">
+      <c r="K25" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="L25" s="12"/>
+      <c r="L25" s="13"/>
     </row>
     <row r="26" customFormat="false" ht="58.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="30" t="s">
+      <c r="B26" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="31" t="s">
+      <c r="C26" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="30" t="n">
+      <c r="D26" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="E26" s="14" t="n">
+      <c r="E26" s="15" t="n">
         <v>45964</v>
       </c>
-      <c r="F26" s="14" t="n">
+      <c r="F26" s="15" t="n">
         <v>45964</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H26" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="I26" s="12" t="s">
+      <c r="I26" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="J26" s="14" t="n">
+      <c r="J26" s="15" t="n">
         <v>45965</v>
       </c>
-      <c r="K26" s="12" t="s">
+      <c r="K26" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="L26" s="12"/>
-    </row>
-    <row r="27" customFormat="false" ht="94" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="30"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="12" t="s">
+      <c r="L26" s="13"/>
+    </row>
+    <row r="27" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="29"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="I27" s="18" t="s">
+      <c r="I27" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="J27" s="14"/>
-      <c r="K27" s="18" t="s">
+      <c r="J27" s="15"/>
+      <c r="K27" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="L27" s="18"/>
-    </row>
-    <row r="28" customFormat="false" ht="163" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="30"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="12" t="s">
+      <c r="L27" s="19"/>
+    </row>
+    <row r="28" customFormat="false" ht="161.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="I28" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="J28" s="14"/>
-      <c r="K28" s="12" t="s">
+      <c r="J28" s="15"/>
+      <c r="K28" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="L28" s="12"/>
-    </row>
-    <row r="29" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="11" t="s">
+      <c r="L28" s="13"/>
+    </row>
+    <row r="29" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="D29" s="13" t="n">
+      <c r="D29" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="E29" s="14" t="n">
+      <c r="E29" s="15" t="n">
         <v>45964</v>
       </c>
-      <c r="F29" s="14" t="n">
+      <c r="F29" s="15" t="n">
         <v>45964</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="H29" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="I29" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="J29" s="14" t="n">
+      <c r="J29" s="15" t="n">
         <v>45965</v>
       </c>
-      <c r="K29" s="12" t="s">
+      <c r="K29" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="L29" s="12"/>
-    </row>
-    <row r="30" customFormat="false" ht="36.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="11" t="s">
+      <c r="L29" s="13"/>
+    </row>
+    <row r="30" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="13" t="n">
+      <c r="D30" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="E30" s="14" t="n">
+      <c r="E30" s="15" t="n">
         <v>45964</v>
       </c>
-      <c r="F30" s="14" t="n">
+      <c r="F30" s="15" t="n">
         <v>45964</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="H30" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="I30" s="12" t="s">
+      <c r="I30" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="J30" s="14" t="n">
+      <c r="J30" s="15" t="n">
         <v>45965</v>
       </c>
-      <c r="K30" s="12" t="s">
+      <c r="K30" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="L30" s="12"/>
-    </row>
-    <row r="31" customFormat="false" ht="140" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="11" t="s">
+      <c r="L30" s="13"/>
+    </row>
+    <row r="31" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D31" s="13" t="n">
+      <c r="D31" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="E31" s="14" t="n">
+      <c r="E31" s="15" t="n">
         <v>45964</v>
       </c>
-      <c r="F31" s="14" t="n">
+      <c r="F31" s="15" t="n">
         <v>45964</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G31" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="H31" s="12" t="s">
+      <c r="H31" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="I31" s="12" t="s">
+      <c r="I31" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="J31" s="14" t="n">
+      <c r="J31" s="15" t="n">
         <v>45965</v>
       </c>
-      <c r="K31" s="12" t="s">
+      <c r="K31" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="L31" s="12"/>
-    </row>
-    <row r="32" customFormat="false" ht="151.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="11" t="s">
+      <c r="L31" s="13"/>
+    </row>
+    <row r="32" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="D32" s="13" t="n">
+      <c r="D32" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="E32" s="14" t="n">
+      <c r="E32" s="15" t="n">
         <v>45964</v>
       </c>
-      <c r="F32" s="14" t="n">
+      <c r="F32" s="15" t="n">
         <v>45964</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="H32" s="12" t="s">
+      <c r="H32" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="I32" s="12" t="s">
+      <c r="I32" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="J32" s="14" t="n">
+      <c r="J32" s="15" t="n">
         <v>45965</v>
       </c>
-      <c r="K32" s="12" t="s">
+      <c r="K32" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="L32" s="12"/>
+      <c r="L32" s="13"/>
     </row>
     <row r="33" customFormat="false" ht="69.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="30" t="s">
+      <c r="B33" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="D33" s="30" t="n">
+      <c r="D33" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="E33" s="14" t="n">
+      <c r="E33" s="15" t="n">
         <v>45964</v>
       </c>
-      <c r="F33" s="14" t="n">
+      <c r="F33" s="15" t="n">
         <v>45964</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="G33" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12" t="s">
+      <c r="H33" s="13"/>
+      <c r="I33" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="J33" s="14" t="n">
+      <c r="J33" s="15" t="n">
         <v>45965</v>
       </c>
-      <c r="K33" s="12" t="s">
+      <c r="K33" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="L33" s="12"/>
-    </row>
-    <row r="34" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="30"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="12" t="s">
+      <c r="L33" s="13"/>
+    </row>
+    <row r="34" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="29"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12" t="s">
+      <c r="H34" s="13"/>
+      <c r="I34" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="J34" s="14" t="n">
+      <c r="J34" s="15" t="n">
         <v>45965</v>
       </c>
-      <c r="K34" s="12" t="s">
+      <c r="K34" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="L34" s="12"/>
+      <c r="L34" s="13"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="24"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="25"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="25"/>
-      <c r="L35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
     </row>
     <row r="36" customFormat="false" ht="186" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="D36" s="13" t="n">
+      <c r="D36" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="E36" s="14" t="n">
+      <c r="E36" s="15" t="n">
         <v>45973</v>
       </c>
-      <c r="F36" s="14" t="n">
+      <c r="F36" s="15" t="n">
         <v>45973</v>
       </c>
-      <c r="G36" s="12" t="s">
+      <c r="G36" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="H36" s="12" t="s">
+      <c r="H36" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="I36" s="18" t="s">
+      <c r="I36" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="J36" s="14" t="n">
+      <c r="J36" s="15" t="n">
         <v>45981</v>
       </c>
-      <c r="K36" s="12" t="s">
+      <c r="K36" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="L36" s="12"/>
-    </row>
-    <row r="37" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="11" t="s">
+      <c r="L36" s="13"/>
+    </row>
+    <row r="37" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="D37" s="13" t="n">
+      <c r="D37" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="E37" s="14" t="n">
+      <c r="E37" s="15" t="n">
         <v>45973</v>
       </c>
-      <c r="F37" s="14" t="n">
+      <c r="F37" s="15" t="n">
         <v>45973</v>
       </c>
-      <c r="G37" s="12" t="s">
+      <c r="G37" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="H37" s="12" t="s">
+      <c r="H37" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="I37" s="12" t="s">
+      <c r="I37" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="J37" s="14" t="n">
+      <c r="J37" s="15" t="n">
         <v>45981</v>
       </c>
-      <c r="K37" s="12" t="s">
+      <c r="K37" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="L37" s="12"/>
+      <c r="L37" s="13"/>
     </row>
     <row r="38" customFormat="false" ht="46.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="30" t="s">
+      <c r="B38" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C38" s="30" t="s">
         <v>171</v>
       </c>
-      <c r="D38" s="30" t="n">
+      <c r="D38" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="E38" s="14" t="n">
+      <c r="E38" s="15" t="n">
         <v>45974</v>
       </c>
-      <c r="F38" s="14" t="n">
+      <c r="F38" s="15" t="n">
         <v>45974</v>
       </c>
-      <c r="G38" s="12" t="s">
+      <c r="G38" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="H38" s="12" t="s">
+      <c r="H38" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="I38" s="12" t="s">
+      <c r="I38" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="J38" s="14" t="n">
+      <c r="J38" s="15" t="n">
         <v>45981</v>
       </c>
-      <c r="K38" s="12" t="s">
+      <c r="K38" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="L38" s="12"/>
+      <c r="L38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="30"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="30"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="12" t="s">
+      <c r="B39" s="29"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="H39" s="12" t="s">
+      <c r="H39" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="I39" s="12" t="s">
+      <c r="I39" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="J39" s="14"/>
-      <c r="K39" s="12" t="s">
+      <c r="J39" s="15"/>
+      <c r="K39" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="L39" s="12"/>
-    </row>
-    <row r="40" customFormat="false" ht="71" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="30"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="30"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="12" t="s">
+      <c r="L39" s="13"/>
+    </row>
+    <row r="40" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="29"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="H40" s="12" t="s">
+      <c r="H40" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="I40" s="12" t="s">
+      <c r="I40" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="J40" s="14"/>
-      <c r="K40" s="12" t="s">
+      <c r="J40" s="15"/>
+      <c r="K40" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="L40" s="12"/>
+      <c r="L40" s="13"/>
     </row>
     <row r="41" customFormat="false" ht="223.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="30"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="30"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="12" t="s">
+      <c r="B41" s="29"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="H41" s="12" t="s">
+      <c r="H41" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="I41" s="12" t="s">
+      <c r="I41" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="J41" s="14"/>
-      <c r="K41" s="12" t="s">
+      <c r="J41" s="15"/>
+      <c r="K41" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="L41" s="12"/>
-    </row>
-    <row r="42" customFormat="false" ht="59.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="30"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="30"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="12" t="s">
+      <c r="L41" s="13"/>
+    </row>
+    <row r="42" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="29"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="H42" s="12" t="s">
+      <c r="H42" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="I42" s="12" t="s">
+      <c r="I42" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="J42" s="14"/>
-      <c r="K42" s="12" t="s">
+      <c r="J42" s="15"/>
+      <c r="K42" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="L42" s="12"/>
-    </row>
-    <row r="43" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="30"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="30"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="12" t="s">
+      <c r="L42" s="13"/>
+    </row>
+    <row r="43" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="29"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="H43" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="I43" s="12" t="s">
+      <c r="I43" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="J43" s="14"/>
-      <c r="K43" s="12" t="s">
+      <c r="J43" s="15"/>
+      <c r="K43" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="L43" s="12"/>
-    </row>
-    <row r="44" customFormat="false" ht="59.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="30"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="30"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="12" t="s">
+      <c r="L43" s="13"/>
+    </row>
+    <row r="44" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="29"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="H44" s="12" t="s">
+      <c r="H44" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="I44" s="12" t="s">
+      <c r="I44" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="J44" s="14"/>
-      <c r="K44" s="12" t="s">
+      <c r="J44" s="15"/>
+      <c r="K44" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="L44" s="12"/>
-    </row>
-    <row r="45" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="30"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="30"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="12" t="s">
+      <c r="L44" s="13"/>
+    </row>
+    <row r="45" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="29"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="H45" s="12" t="s">
+      <c r="H45" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="I45" s="12" t="s">
+      <c r="I45" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="J45" s="14"/>
-      <c r="K45" s="12" t="s">
+      <c r="J45" s="15"/>
+      <c r="K45" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="L45" s="12"/>
-    </row>
-    <row r="46" customFormat="false" ht="36.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="30"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="30"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="12" t="s">
+      <c r="L45" s="13"/>
+    </row>
+    <row r="46" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="29"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="H46" s="12" t="s">
+      <c r="H46" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="I46" s="12" t="s">
+      <c r="I46" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="J46" s="14"/>
-      <c r="K46" s="12"/>
-      <c r="L46" s="12"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="14" t="n">
+      <c r="D47" s="14"/>
+      <c r="E47" s="15" t="n">
         <v>45974</v>
       </c>
-      <c r="F47" s="14" t="n">
+      <c r="F47" s="15" t="n">
         <v>45974</v>
       </c>
-      <c r="G47" s="11" t="s">
+      <c r="G47" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="H47" s="12" t="s">
+      <c r="H47" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="I47" s="12" t="s">
+      <c r="I47" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="J47" s="14" t="n">
+      <c r="J47" s="15" t="n">
         <v>45981</v>
       </c>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
     </row>
     <row r="48" customFormat="false" ht="151.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="11" t="s">
+      <c r="B48" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="D48" s="13" t="n">
+      <c r="D48" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="E48" s="14" t="n">
+      <c r="E48" s="15" t="n">
         <v>45974</v>
       </c>
-      <c r="F48" s="14" t="n">
+      <c r="F48" s="15" t="n">
         <v>45974</v>
       </c>
-      <c r="G48" s="12" t="s">
+      <c r="G48" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="H48" s="12" t="s">
+      <c r="H48" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="I48" s="12" t="s">
+      <c r="I48" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="J48" s="14" t="n">
+      <c r="J48" s="15" t="n">
         <v>45981</v>
       </c>
-      <c r="K48" s="12" t="s">
+      <c r="K48" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="L48" s="12"/>
-    </row>
-    <row r="49" customFormat="false" ht="71" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="11" t="s">
+      <c r="L48" s="13"/>
+    </row>
+    <row r="49" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="D49" s="13" t="n">
+      <c r="D49" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="E49" s="14" t="n">
+      <c r="E49" s="15" t="n">
         <v>45974</v>
       </c>
-      <c r="F49" s="14" t="n">
+      <c r="F49" s="15" t="n">
         <v>45974</v>
       </c>
-      <c r="G49" s="12" t="s">
+      <c r="G49" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="H49" s="12" t="s">
+      <c r="H49" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="I49" s="12" t="s">
+      <c r="I49" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="J49" s="14" t="n">
+      <c r="J49" s="15" t="n">
         <v>45981</v>
       </c>
-      <c r="K49" s="12" t="s">
+      <c r="K49" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="L49" s="12"/>
-    </row>
-    <row r="50" customFormat="false" ht="82.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="11" t="s">
+      <c r="L49" s="13"/>
+    </row>
+    <row r="50" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="D50" s="13" t="n">
+      <c r="D50" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="E50" s="14" t="n">
+      <c r="E50" s="15" t="n">
         <v>45974</v>
       </c>
-      <c r="F50" s="14" t="n">
+      <c r="F50" s="15" t="n">
         <v>45974</v>
       </c>
-      <c r="G50" s="12" t="s">
+      <c r="G50" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="H50" s="12" t="s">
+      <c r="H50" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="I50" s="12" t="s">
+      <c r="I50" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="J50" s="14" t="n">
+      <c r="J50" s="15" t="n">
         <v>45981</v>
       </c>
-      <c r="K50" s="12" t="s">
+      <c r="K50" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="L50" s="12"/>
-    </row>
-    <row r="51" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="11" t="s">
+      <c r="L50" s="13"/>
+    </row>
+    <row r="51" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="D51" s="13" t="n">
+      <c r="D51" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="E51" s="14" t="n">
+      <c r="E51" s="15" t="n">
         <v>45974</v>
       </c>
-      <c r="F51" s="14" t="n">
+      <c r="F51" s="15" t="n">
         <v>45974</v>
       </c>
-      <c r="G51" s="11" t="s">
+      <c r="G51" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="H51" s="18" t="s">
+      <c r="H51" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="I51" s="18" t="s">
+      <c r="I51" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="J51" s="14" t="n">
+      <c r="J51" s="15" t="n">
         <v>45981</v>
       </c>
-      <c r="K51" s="12" t="s">
+      <c r="K51" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="L51" s="12"/>
+      <c r="L51" s="13"/>
     </row>
     <row r="52" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="30" t="s">
+      <c r="B52" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="D52" s="30" t="n">
+      <c r="D52" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="E52" s="14" t="n">
+      <c r="E52" s="15" t="n">
         <v>45974</v>
       </c>
-      <c r="F52" s="14" t="n">
+      <c r="F52" s="15" t="n">
         <v>45974</v>
       </c>
-      <c r="G52" s="12" t="s">
+      <c r="G52" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="H52" s="12" t="s">
+      <c r="H52" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="I52" s="12" t="s">
+      <c r="I52" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="J52" s="14" t="n">
+      <c r="J52" s="15" t="n">
         <v>45981</v>
       </c>
-      <c r="K52" s="12" t="s">
+      <c r="K52" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="L52" s="12"/>
+      <c r="L52" s="13"/>
     </row>
     <row r="53" customFormat="false" ht="261" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="30"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="12" t="s">
+      <c r="B53" s="29"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="H53" s="12" t="s">
+      <c r="H53" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="I53" s="18" t="s">
+      <c r="I53" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="J53" s="14"/>
-      <c r="K53" s="12" t="s">
+      <c r="J53" s="15"/>
+      <c r="K53" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="L53" s="12"/>
-    </row>
-    <row r="54" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="30"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="12" t="s">
+      <c r="L53" s="13"/>
+    </row>
+    <row r="54" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="29"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12" t="s">
+      <c r="H54" s="13"/>
+      <c r="I54" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="J54" s="14"/>
-      <c r="K54" s="12" t="s">
+      <c r="J54" s="15"/>
+      <c r="K54" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="L54" s="12"/>
+      <c r="L54" s="13"/>
     </row>
     <row r="55" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="30"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="12" t="s">
+      <c r="B55" s="29"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="H55" s="12" t="s">
+      <c r="H55" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="I55" s="12" t="s">
+      <c r="I55" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="J55" s="14"/>
-      <c r="K55" s="12" t="s">
+      <c r="J55" s="15"/>
+      <c r="K55" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="L55" s="12"/>
-    </row>
-    <row r="56" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="11" t="s">
+      <c r="L55" s="13"/>
+    </row>
+    <row r="56" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="D56" s="13" t="n">
+      <c r="D56" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="E56" s="14" t="n">
+      <c r="E56" s="15" t="n">
         <v>45974</v>
       </c>
-      <c r="F56" s="14" t="n">
+      <c r="F56" s="15" t="n">
         <v>45974</v>
       </c>
-      <c r="G56" s="12" t="s">
+      <c r="G56" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="H56" s="11" t="s">
+      <c r="H56" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="I56" s="12" t="s">
+      <c r="I56" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="J56" s="14" t="n">
+      <c r="J56" s="15" t="n">
         <v>45981</v>
       </c>
-      <c r="K56" s="12" t="s">
+      <c r="K56" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="L56" s="12"/>
+      <c r="L56" s="13"/>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="24"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="25"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="25"/>
-      <c r="L57" s="25"/>
-    </row>
-    <row r="58" customFormat="false" ht="36.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="11" t="s">
+      <c r="B57" s="25"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+    </row>
+    <row r="58" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="D58" s="13" t="n">
+      <c r="D58" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="E58" s="38"/>
-      <c r="F58" s="14" t="n">
+      <c r="E58" s="37"/>
+      <c r="F58" s="15" t="n">
         <v>45974</v>
       </c>
-      <c r="G58" s="12" t="s">
+      <c r="G58" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="H58" s="12" t="s">
+      <c r="H58" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="I58" s="18" t="s">
+      <c r="I58" s="19" t="s">
         <v>241</v>
       </c>
-      <c r="J58" s="13"/>
-      <c r="K58" s="12" t="s">
+      <c r="J58" s="14"/>
+      <c r="K58" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="L58" s="12"/>
+      <c r="L58" s="13"/>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="24"/>
-      <c r="C59" s="25"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="24"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="D60" s="13" t="n">
+      <c r="D60" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="E60" s="14" t="n">
+      <c r="E60" s="15" t="n">
         <v>46001</v>
       </c>
-      <c r="F60" s="14" t="n">
+      <c r="F60" s="15" t="n">
         <v>45999</v>
       </c>
-      <c r="G60" s="20" t="s">
+      <c r="G60" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
-    </row>
-    <row r="61" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="11" t="s">
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="14"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+    </row>
+    <row r="61" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="D61" s="13" t="n">
+      <c r="D61" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="E61" s="14" t="n">
+      <c r="E61" s="15" t="n">
         <v>46001</v>
       </c>
-      <c r="F61" s="14" t="n">
+      <c r="F61" s="15" t="n">
         <v>45999</v>
       </c>
-      <c r="G61" s="20" t="s">
+      <c r="G61" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C62" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="D62" s="13" t="n">
+      <c r="D62" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="E62" s="14" t="n">
+      <c r="E62" s="15" t="n">
         <v>46001</v>
       </c>
-      <c r="F62" s="14" t="n">
+      <c r="F62" s="15" t="n">
         <v>45999</v>
       </c>
-      <c r="G62" s="20" t="s">
+      <c r="G62" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="D63" s="13" t="n">
+      <c r="D63" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="E63" s="14" t="n">
+      <c r="E63" s="15" t="n">
         <v>46001</v>
       </c>
-      <c r="F63" s="14" t="n">
+      <c r="F63" s="15" t="n">
         <v>45999</v>
       </c>
-      <c r="G63" s="20" t="s">
+      <c r="G63" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
-    </row>
-    <row r="64" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="11" t="s">
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+    </row>
+    <row r="64" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="D64" s="13" t="n">
+      <c r="D64" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="E64" s="14" t="n">
+      <c r="E64" s="15" t="n">
         <v>46001</v>
       </c>
-      <c r="F64" s="14" t="n">
+      <c r="F64" s="15" t="n">
         <v>45999</v>
       </c>
-      <c r="G64" s="20" t="s">
+      <c r="G64" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
-    </row>
-    <row r="65" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="11" t="s">
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+    </row>
+    <row r="65" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="D65" s="13" t="n">
+      <c r="D65" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="E65" s="14" t="n">
+      <c r="E65" s="15" t="n">
         <v>46001</v>
       </c>
-      <c r="F65" s="14" t="n">
+      <c r="F65" s="15" t="n">
         <v>45999</v>
       </c>
-      <c r="G65" s="20" t="s">
+      <c r="G65" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="11"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="D66" s="13" t="n">
+      <c r="D66" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="E66" s="14" t="n">
+      <c r="E66" s="15" t="n">
         <v>46001</v>
       </c>
-      <c r="F66" s="14" t="n">
+      <c r="F66" s="15" t="n">
         <v>45999</v>
       </c>
-      <c r="G66" s="20" t="s">
+      <c r="G66" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="11"/>
-    </row>
-    <row r="67" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="11" t="s">
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+    </row>
+    <row r="67" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="D67" s="13" t="n">
+      <c r="D67" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="E67" s="14" t="n">
+      <c r="E67" s="15" t="n">
         <v>46001</v>
       </c>
-      <c r="F67" s="14" t="n">
+      <c r="F67" s="15" t="n">
         <v>45999</v>
       </c>
-      <c r="G67" s="20" t="s">
+      <c r="G67" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="11"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="14"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="34">
     <mergeCell ref="D2:D17"/>

--- a/beton_durci/fiche_evol_referentiel/Analyse_impact_nouveau_SMQ_Cerema_2026.xlsx
+++ b/beton_durci/fiche_evol_referentiel/Analyse_impact_nouveau_SMQ_Cerema_2026.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="259">
   <si>
     <t xml:space="preserve">Fait BB</t>
   </si>
@@ -457,7 +457,39 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">MD/EM</t>
+    <t xml:space="preserve">NCL000-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan d'action NCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modèle de document à utiliser pour le plan d’action local.
+Un tableau équivalent de portée NCL sera alimenté à partir des écarts de portée nationale.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nouveau modèle pour le suivi local des actions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">à priori ce sera un document supplémentaire à renseigner pour nous. Jusque là, nous suivions nos actions avec l’outil AQTION et la revue annuelle.
+À discuter avec Alexandre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCL000-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planning des audits internes et externes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document à utiliser pour le suivi et la planification des audits internes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tableur de plannification des audits internes
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre à jour ce document pour ACF à partir de 2026 (tous les types d'audit interne).
+Ne plus alimenter le tableur centre-est.
+</t>
   </si>
   <si>
     <t xml:space="preserve">NCL001</t>
@@ -730,43 +762,6 @@
 "sensibiliser régulièrement leurs équipes à la gestion de l’impartialité ;"</t>
   </si>
   <si>
-    <t xml:space="preserve">NCL000-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan d'action NCL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modèle de document à utiliser pour le plan d’action local.
-Un tableau équivalent de portée NCL sera alimenté à partir des écarts de portée nationale.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nouveau modèle pour le suivi local des actions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transposer notre plan d’action local (Excel) dans le nouveau modèle.
-A utiliser aussi pour les essais de certification hors Cofrac, la métrologie et l’organisme d’inspection.
-Revoir la définition des criticités dans l’instruction Cofrac du DRIM.
-Prévoir d’indiquer dans l’instruction Cofrac du DRIM qu’elle s’applique aussi aux essais de certif ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCL000-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Planning des audits internes et externes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Document à utiliser pour le suivi et la planification des audits internes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tableur de plannification des audits internes
-Instruction Cofrac du DRIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mettre à jour ce document pour le DRIM (tous les types d'audit interne).
-Renvoyer vers ce document dans l'instruction Cofrac du DRIM pour notre planification.
-Retrait du fichier de suivi actuel.</t>
-  </si>
-  <si>
     <t xml:space="preserve">EM000</t>
   </si>
   <si>
@@ -815,6 +810,9 @@
   </si>
   <si>
     <t xml:space="preserve">Faire un rappel en revue de direction Cofrac du DRIM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MD/EM</t>
   </si>
   <si>
     <r>
@@ -1212,8 +1210,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF81D41A"/>
-        <bgColor rgb="FF969696"/>
+        <fgColor rgb="FF00A933"/>
+        <bgColor rgb="FF008000"/>
       </patternFill>
     </fill>
     <fill>
@@ -1498,14 +1496,14 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF81D41A"/>
+      <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00A933"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -1694,12 +1692,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L67"/>
+  <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1929,7 +1927,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="272.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="264.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11"/>
       <c r="B8" s="12" t="s">
         <v>45</v>
@@ -2458,161 +2456,157 @@
       <c r="I25" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="J25" s="15" t="n">
-        <v>45965</v>
-      </c>
-      <c r="K25" s="13" t="s">
+      <c r="J25" s="15"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+    </row>
+    <row r="26" customFormat="false" ht="186" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="23"/>
+      <c r="B26" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="L25" s="13"/>
-    </row>
-    <row r="26" customFormat="false" ht="58.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="29" t="s">
+      <c r="C26" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="D26" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" s="15" t="n">
+        <v>45973</v>
+      </c>
+      <c r="F26" s="15" t="n">
+        <v>45973</v>
+      </c>
+      <c r="G26" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="29" t="n">
+      <c r="H26" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="I26" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="J26" s="15"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+    </row>
+    <row r="27" customFormat="false" ht="57.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="18"/>
+      <c r="B27" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="E26" s="15" t="n">
-        <v>45964</v>
-      </c>
-      <c r="F26" s="15" t="n">
-        <v>45964</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="J26" s="15" t="n">
-        <v>45965</v>
-      </c>
-      <c r="K26" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="L26" s="13"/>
-    </row>
-    <row r="27" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="29"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
+      <c r="E27" s="15" t="n">
+        <v>45973</v>
+      </c>
+      <c r="F27" s="15" t="n">
+        <v>45973</v>
+      </c>
       <c r="G27" s="13" t="s">
         <v>126</v>
       </c>
       <c r="H27" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="I27" s="19" t="s">
+      <c r="I27" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="J27" s="15"/>
-      <c r="K27" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="L27" s="19"/>
-    </row>
-    <row r="28" customFormat="false" ht="161.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="29"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
+      <c r="J27" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="L27" s="35" t="n">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="58.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B28" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" s="15" t="n">
+        <v>45964</v>
+      </c>
+      <c r="F28" s="15" t="n">
+        <v>45964</v>
+      </c>
       <c r="G28" s="13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="J28" s="15"/>
+        <v>133</v>
+      </c>
+      <c r="J28" s="15" t="n">
+        <v>45965</v>
+      </c>
       <c r="K28" s="13" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="L28" s="13"/>
     </row>
-    <row r="29" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="D29" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E29" s="15" t="n">
-        <v>45964</v>
-      </c>
-      <c r="F29" s="15" t="n">
-        <v>45964</v>
-      </c>
+    <row r="29" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
       <c r="G29" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="J29" s="15"/>
+      <c r="K29" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="J29" s="15" t="n">
-        <v>45965</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="L29" s="13"/>
-    </row>
-    <row r="30" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="12" t="s">
+      <c r="L29" s="19"/>
+    </row>
+    <row r="30" customFormat="false" ht="161.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="29"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="H30" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E30" s="15" t="n">
-        <v>45964</v>
-      </c>
-      <c r="F30" s="15" t="n">
-        <v>45964</v>
-      </c>
-      <c r="G30" s="13" t="s">
+      <c r="I30" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="J30" s="15"/>
+      <c r="K30" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="L30" s="13"/>
+    </row>
+    <row r="31" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="I30" s="13" t="s">
+      <c r="C31" s="13" t="s">
         <v>142</v>
-      </c>
-      <c r="J30" s="15" t="n">
-        <v>45965</v>
-      </c>
-      <c r="K30" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="L30" s="13"/>
-    </row>
-    <row r="31" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>144</v>
       </c>
       <c r="D31" s="14" t="n">
         <v>1</v>
@@ -2624,28 +2618,28 @@
         <v>45964</v>
       </c>
       <c r="G31" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="I31" s="13" t="s">
         <v>145</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>147</v>
       </c>
       <c r="J31" s="15" t="n">
         <v>45965</v>
       </c>
       <c r="K31" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="L31" s="13"/>
+    </row>
+    <row r="32" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>148</v>
-      </c>
-      <c r="L31" s="13"/>
-    </row>
-    <row r="32" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>144</v>
       </c>
       <c r="D32" s="14" t="n">
         <v>1</v>
@@ -2657,30 +2651,30 @@
         <v>45964</v>
       </c>
       <c r="G32" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="H32" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="H32" s="13" t="s">
+      <c r="I32" s="13" t="s">
         <v>151</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>152</v>
       </c>
       <c r="J32" s="15" t="n">
         <v>45965</v>
       </c>
       <c r="K32" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="L32" s="13"/>
+    </row>
+    <row r="33" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="L32" s="13"/>
-    </row>
-    <row r="33" customFormat="false" ht="69.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>155</v>
-      </c>
-      <c r="D33" s="29" t="n">
+      <c r="D33" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E33" s="15" t="n">
@@ -2690,126 +2684,126 @@
         <v>45964</v>
       </c>
       <c r="G33" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="I33" s="13" t="s">
         <v>156</v>
-      </c>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13" t="s">
-        <v>157</v>
       </c>
       <c r="J33" s="15" t="n">
         <v>45965</v>
       </c>
       <c r="K33" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="L33" s="13"/>
+    </row>
+    <row r="34" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="L33" s="13"/>
-    </row>
-    <row r="34" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="29"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
+      <c r="C34" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D34" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="15" t="n">
+        <v>45964</v>
+      </c>
+      <c r="F34" s="15" t="n">
+        <v>45964</v>
+      </c>
       <c r="G34" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="H34" s="13"/>
+      <c r="H34" s="13" t="s">
+        <v>160</v>
+      </c>
       <c r="I34" s="13" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="J34" s="15" t="n">
         <v>45965</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L34" s="13"/>
     </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-    </row>
-    <row r="36" customFormat="false" ht="186" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="D36" s="14" t="n">
+    <row r="35" customFormat="false" ht="69.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" s="30" t="s">
+        <v>164</v>
+      </c>
+      <c r="D35" s="29" t="n">
         <v>1</v>
       </c>
-      <c r="E36" s="15" t="n">
-        <v>45973</v>
-      </c>
-      <c r="F36" s="15" t="n">
-        <v>45973</v>
-      </c>
+      <c r="E35" s="15" t="n">
+        <v>45964</v>
+      </c>
+      <c r="F35" s="15" t="n">
+        <v>45964</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="J35" s="15" t="n">
+        <v>45965</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="L35" s="13"/>
+    </row>
+    <row r="36" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="29"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
       <c r="G36" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="H36" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="I36" s="19" t="s">
-        <v>164</v>
+        <v>168</v>
+      </c>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13" t="s">
+        <v>166</v>
       </c>
       <c r="J36" s="15" t="n">
-        <v>45981</v>
+        <v>45965</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="L36" s="13"/>
     </row>
-    <row r="37" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C37" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="D37" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" s="15" t="n">
-        <v>45973</v>
-      </c>
-      <c r="F37" s="15" t="n">
-        <v>45973</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="H37" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="J37" s="15" t="n">
-        <v>45981</v>
-      </c>
-      <c r="K37" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="L37" s="13"/>
+    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="25"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
     </row>
     <row r="38" customFormat="false" ht="46.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="30" t="s">
         <v>170</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>171</v>
       </c>
       <c r="D38" s="29" t="n">
         <v>3</v>
@@ -2821,19 +2815,19 @@
         <v>45974</v>
       </c>
       <c r="G38" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="H38" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="I38" s="13" t="s">
         <v>173</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>174</v>
       </c>
       <c r="J38" s="15" t="n">
         <v>45981</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L38" s="13"/>
     </row>
@@ -2844,17 +2838,17 @@
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
       <c r="G39" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="H39" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="H39" s="13" t="s">
+      <c r="I39" s="13" t="s">
         <v>177</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>178</v>
       </c>
       <c r="J39" s="15"/>
       <c r="K39" s="13" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="L39" s="13"/>
     </row>
@@ -2871,11 +2865,11 @@
         <v>180</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J40" s="15"/>
       <c r="K40" s="13" t="s">
-        <v>119</v>
+        <v>178</v>
       </c>
       <c r="L40" s="13"/>
     </row>
@@ -2896,7 +2890,7 @@
       </c>
       <c r="J41" s="15"/>
       <c r="K41" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L41" s="13"/>
     </row>
@@ -2910,14 +2904,14 @@
         <v>184</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I42" s="13" t="s">
         <v>185</v>
       </c>
       <c r="J42" s="15"/>
       <c r="K42" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L42" s="13"/>
     </row>
@@ -2938,7 +2932,7 @@
       </c>
       <c r="J43" s="15"/>
       <c r="K43" s="13" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="L43" s="13"/>
     </row>
@@ -2980,7 +2974,7 @@
       </c>
       <c r="J45" s="15"/>
       <c r="K45" s="13" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="L45" s="13"/>
     </row>
@@ -3061,7 +3055,7 @@
         <v>45981</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="L48" s="13"/>
     </row>
@@ -3329,7 +3323,7 @@
       </c>
       <c r="J58" s="14"/>
       <c r="K58" s="13" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="L58" s="13"/>
     </row>
@@ -3546,8 +3540,10 @@
       <c r="K67" s="12"/>
       <c r="L67" s="12"/>
     </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="35">
     <mergeCell ref="D2:D17"/>
     <mergeCell ref="E2:E17"/>
     <mergeCell ref="F2:F17"/>
@@ -3559,17 +3555,18 @@
     <mergeCell ref="J20:J21"/>
     <mergeCell ref="K20:K21"/>
     <mergeCell ref="L20:L21"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="J26:J28"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="C28:C30"/>
+    <mergeCell ref="D28:D30"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="J28:J30"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
     <mergeCell ref="B38:B46"/>
     <mergeCell ref="C38:C46"/>
     <mergeCell ref="D38:D46"/>

--- a/beton_durci/fiche_evol_referentiel/Analyse_impact_nouveau_SMQ_Cerema_2026.xlsx
+++ b/beton_durci/fiche_evol_referentiel/Analyse_impact_nouveau_SMQ_Cerema_2026.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="270">
   <si>
     <t xml:space="preserve">Fait BB</t>
   </si>
@@ -498,6 +498,18 @@
     <t xml:space="preserve">Procédure de maîtrise documentaire et des Systèmes de Gestion de l'Information (SGI)</t>
   </si>
   <si>
+    <t xml:space="preserve">§2.2 Maitrise du système documentaire :
+- Liste des documents en vigueur et à jour du SMQ NCL accessible par le tableur NCL001-1 « liste documentaire SMQ NCL ».
+- Revue documentaire du SMQ NCL réalisée par les référents/responsables de Domaine d’Application (DA).
+- Diffusion réalisé par Mission Qualité NCL, Référent/Reponsable de DA, ou responsable de famille.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas d’impact / information à priori descendante</t>
+  </si>
+  <si>
+    <t xml:space="preserve">à voir si on intègre ces documents à notre revue annuelle ou si on fait confiance à la revue documentaire au niveau national</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -509,37 +521,23 @@
       <t xml:space="preserve">§3.3 Tableurs et feuilles de calculs
 "Les tableurs et feuilles de calculs :
 · permettent de traiter les données brutes ;
-· </t>
+</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">doivent être validés et utilisés avec le logiciel utilisé pour la création du tableur</t>
+      <t xml:space="preserve">· doivent être validés et utilisés avec le logiciel utilisé pour la création du tableur."</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">."</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Validation des feuilles de calcul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A prendre en compte pour les prochaines analyses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UT/métro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas d’impact. Nos feuilles de calcul locales, répondent déjà à ces spécifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sans objet, pratique locale compatible avec exigences nationales</t>
   </si>
   <si>
     <r>
@@ -558,13 +556,12 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Les feuilles sont protégées en autorisant la sélection des cellules protégées et non protégées
-(permettant la visualisation des formules)</t>
+(permettant la visualisation des formules).</t>
     </r>
     <r>
       <rPr>
@@ -574,14 +571,24 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">."</t>
+      <t xml:space="preserve">"</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Protection des feuilles de calcul</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A vérifier pendant les audits internes</t>
+    <t xml:space="preserve">Modalités de protection des feuilles de calcul : 
+Pas d’impact pour la feuille de calcul du Drcm.
+La feuille de calcul de la résistance en compression n’est pas conforme à ces dispositions sur la partie « possibilité de visualiser les formules dans des cellules protégées)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">à discuter en revue annuelle.
+Si facile à faire : mise à jour du modèle de rapport pour l’essai en compression.
+Si pas facile à faire, attente du déploiement du LIMS pour cet essai qui devrait arriver rapidement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bruno BOULET, Mathieu CIPIERE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">à définir</t>
   </si>
   <si>
     <r>
@@ -597,27 +604,55 @@
 · que le résultat de chaque calcul (ou ensemble de calculs similaires / traitement obtenu par le
 tableur) n’est pas significativement différent de celui obtenu par un autre procédé (manuel, calculatrice,
 etc.) ;
-· </t>
+</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">que les formats des résultats imposés s’appliquent de façon satisfaisante ;
+      <t xml:space="preserve">· que les formats des résultats imposés s’appliquent de façon satisfaisante ;
 · que les formats conditionnels s’appliquent de façon satisfaisante ;
 · que les différentes formules de consignes (apparition ou non de résultat, affichage de messages,
 etc.) s’appliquent de façon satisfaisante</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Validation des outils numériques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formalisation à prendre en compte pour les futures validations (notamment LIMS)</t>
+    <t xml:space="preserve">- Pas d’impact pour le rapport d’essai en compression qui ne contient pas de mise en forme conditionnelle, affichages de message...etc
+- Vérifier/confirmer les mises en formes conditionnelles ou affichages de messages...etc, présentent sur le rapport Drcm, car cela n’avait pas été pris en compte lors de sa validation.
+- Modalités à prendre en compte pour les prochains développement de feuilles de calcul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vérifier/confirmer les mises en formes conditionnelles ou affichages de messages...etc, sur le modèle de rapport Drcm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bruno BOULET / Mathieu CIPIERE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCL001-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liste documentaire SMQ NCL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tableau avec 3 onglets :
+- documents du SMQ NCL
+- documents extérieurs (veille)
+- documents pratique (sécurité SI, signature pdf)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arrêt de la veille documentaire locale sur les documents extérieurs (COFRAC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informer localements des nouvelles dispositions, et mettre à jour le chapitre « veille normatve » de notre annexe spécifique COFRAC locale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bruno BOULET, Alexandre CUER</t>
   </si>
   <si>
     <t xml:space="preserve">NCL002</t>
@@ -626,18 +661,7 @@
     <t xml:space="preserve">Procédure de gestion des accréditations et du RPC</t>
   </si>
   <si>
-    <t xml:space="preserve">§2.1 Statuts (GEN REF 01)
-"Les entités accréditées devront s’y référer et devront répondre aux exigences des documents
-contractuels généraux."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instruction Cofrac du DRIM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Réviser l'instruction Cofrac du CRIM (§2) pour introduire le renvoi au GEN REF 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MD</t>
+    <t xml:space="preserve">Pas de nouvelle exigence pour les activités accréditées </t>
   </si>
   <si>
     <t xml:space="preserve">NCL002-1</t>
@@ -646,13 +670,13 @@
     <t xml:space="preserve">Analyse d'impact d'un référentiel Cofrac nouveau ou révisé</t>
   </si>
   <si>
-    <t xml:space="preserve">formulaire à utiliser pour réaliser l'analyse d'impact de l'évolution de la documentation émanant du Cofrac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analyse nationale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indiquer dans l'instruction Cofrac du DRIM que cette veille est déclinée à partir des analyses nationales</t>
+    <t xml:space="preserve">formulaire à utiliser pour réaliser l'analyse d'impact locale de l'évolution de la documentation émanant du Cofrac, à partir d’une analyse nationale préalable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forme de l’analyse locale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informer localement des nouvelles dispositions en matière d’analyse d’impact d’un référentiel COFRAC révisé et mettre à jour notre annexe spécifique COFRAC</t>
   </si>
   <si>
     <t xml:space="preserve">NCL003</t>
@@ -680,7 +704,16 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> Analyse par un personnel autorisé</t>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Analyse par un personnel autorisé</t>
     </r>
     <r>
       <rPr>
@@ -705,18 +738,27 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> Validation de l’autorisation d’emploi par la ou le responsable de famille ;</t>
+      <t xml:space="preserve"> </t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Transfert de la responsabilité de la veille normative et des analyses d'impact associées au niveau des responsables de famille d'essai. Modalités à définir dans es référentiels correspondants.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mettre à jour l'instruction Cofrac du DRIM pour éxliquer le fonctionnement de la veille normative et des analyses d'impact.
-Garder une vigilance particulière pendant la phase de transition (sa'ssurer que l'on reçoit bien les études d'impact).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MD/UT/métro</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Validation de l’autorisation d’emploi par la ou le responsable de famille ;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Transfert de la responsabilité de la veille normative et des analyses d'impact associées au niveau des responsables de famille d'essai. Modalités à définir dans les référentiels correspondants.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phase transitoire (dans l'attente de l'établissement des référentiels par famille d'essais) : utilisation du modèle d'analyse d'impact national avec signature locale.
+En routine : application des dispositions définies dans la famille d’essais béton
+Retrait de l'ancien formulaire d'analyse d'impact centre-est.
+Informer localement des nouvelles dispositions en matière d’analyse d’impact d’un référentiel révisé
+Mettre à jour notre annexe spécifique COFRAC</t>
   </si>
   <si>
     <t xml:space="preserve">NCL003-1</t>
@@ -726,17 +768,8 @@
 Les analyses d'impact seront organisées par famille d'essai, validées par le responsable famille, sur proposition d'une personne reconnue compétente (organiser à définir dans chaque famille d'essais)</t>
   </si>
   <si>
-    <t xml:space="preserve">Retrait du document local.
+    <t xml:space="preserve">Rend le formulaire centre-est obsolète.
 Organisation à définir par famille d'essais.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phase transitoire (dans l'attente de l'établissement des référentiels par famille d'essais) : utilisation du modèle d'analyse d'impact national avec signature locale.
-En routine : application des disposition définies dans chaque famille d'essais.
-Décrire ce fonctionnement dans l'instruction Cofrac du DRIM
-Retrait de l'ancien formulaire d'analyse d'impact</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MD/EM/UT/métro</t>
   </si>
   <si>
     <t xml:space="preserve">NCL004</t>
@@ -747,21 +780,22 @@
   <si>
     <t xml:space="preserve">3 ACTIONS À METTRE EN OEUVRE POUR PRÉVENIR LES CONFLITS D’INTÉRÊTS
 3.1 Par l’ensemble des agents
-"Se former régulièrement sur les règles d’impartialité, les conflits d’intérêts et les obligations
-déontologiques ;"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prévoir actions de sensibilisation.
-Reviser les procédures locales dédiées à ce sujet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MD/EM/direction</t>
+"Se former régulièrement sur les règles d’impartialité, les conflits d’intérêts et les obligations déontologiques ;". Des formations seront mises en place par NCL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Former les agents concernés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inscription des agents concernés aux formations organisées par NCL sur ce sujet</t>
   </si>
   <si>
     <t xml:space="preserve">3.2.1 Par les responsables hiérarchiques
 "sensibiliser régulièrement leurs équipes à la gestion de l’impartialité ;"</t>
   </si>
   <si>
+    <t xml:space="preserve">Pas d’impact. Déjà réaliser localement lors de la revue annuelle.</t>
+  </si>
+  <si>
     <t xml:space="preserve">EM000</t>
   </si>
   <si>
@@ -769,12 +803,23 @@
   </si>
   <si>
     <t xml:space="preserve">4.1 : Focus « Liste des essais accrédités » :
-« La liste des méthodes d’essais et mesures réalisées sous accréditation « Cofrac Essais » est tenue à jour par les référent-es Essais et Mesures / Cofrac. »</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tableau de suivi des méthodes applicables</t>
-  </si>
-  <si>
+« La liste des méthodes d’essais et mesures réalisées sous accréditation « Cofrac Essais » est tenue à jour au niveau national par les référent-es Essais et Mesures / Cofrac. »</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il n’est plus nécessaire de documenter localement la liste des essais accrédités </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">E</t>
+    </r>
     <r>
       <rPr>
         <sz val="11"/>
@@ -783,25 +828,12 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Renvoyer vers ce tableau.
-</t>
+      <t xml:space="preserve">n attendant l’effectivité de l’accréditation COFRAC multisites, maintenir le périmètre d’acréditation dans l’annexe spécifique COFRAC.
+Lorsque la liste des essais accrédités par site, sera réellement gérée nationalement, y faire référence dans notre annexe spécifique COFRAC</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Voir comment est géré le millésime utilisé</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">MD/EM/UT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.1 : Focus « Référence textuelle à l’accréditation » :
+  </si>
+  <si>
+    <t xml:space="preserve">6.1 : Focus « Référence textuelle à l’accréditation » dans le cadre des devis :
 « Accréditation Cofrac Essais n°1-xxxx, portée disponible sur www.cofrac.fr ».
 </t>
   </si>
@@ -809,10 +841,7 @@
     <t xml:space="preserve">Phrase type à utiliser pour les références à l'accréditation</t>
   </si>
   <si>
-    <t xml:space="preserve">Faire un rappel en revue de direction Cofrac du DRIM.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MD/EM</t>
+    <t xml:space="preserve">Faire un rappel en revue anuelle</t>
   </si>
   <si>
     <r>
@@ -856,11 +885,7 @@
 Le sous-traitant dispose impérativement d’une accréditation Cofrac pour les essais concernés. Les résultats du sous-traitant sont intégrés dans le rapport de synthèse de l’entité. L’entité conserve la preuve de l’accréditation du sous-traitant pour les essais considérés à la date à laquelle ils ont été réalisés. Dans le cas où le sous-traitant ne serait pas accrédité pour ces essais, un accord contractuel documenté, autorisant la production d'un rapport hors accréditation, devra être établi avec le client. »</t>
   </si>
   <si>
-    <t xml:space="preserve">dispositions relatives à la sous-traitance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vérifier la cohérence avec la documentation CE/DRIM.
-Vérifier si concerné.</t>
+    <t xml:space="preserve">sans objet. Nous ne sous-traitons pas d’essai sous accréditation.</t>
   </si>
   <si>
     <r>
@@ -897,35 +922,41 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Vérifier la cohérence avec la documentation CE/DRIM.</t>
+    <t xml:space="preserve">sans objet. Les dispositions locales sont conformes à l’exigence</t>
   </si>
   <si>
     <t xml:space="preserve">6.4 Manutention des objets d’essais et mesures (§7.4)
 Liste des points à intégrer dans les procédures.</t>
   </si>
   <si>
-    <t xml:space="preserve">Complétude des procédures d'essais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vérifier la cohérence avec la documentation CE/DRIM.</t>
+    <t xml:space="preserve">Exigences à prendre en compte dans nos instructions d’essais locales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise à jour des deux instructions d’essais accrédités (Rc, Drcm)</t>
   </si>
   <si>
     <t xml:space="preserve">6.5.3 Demande d’essais
 « La demande d’essais est émise ou validée par la ou le responsable d’essais et doit être recevable au regard des essais à réaliser (quantité fournie, conditionnement, état, aspect, etc.). »</t>
   </si>
   <si>
-    <t xml:space="preserve">MD/EM/UT (métro?)</t>
+    <t xml:space="preserve">Mise à jour des deux instructions d’essais accrédités (Rc, Drcm), et ajout signature du Responsable d’essai pour valider la réception de l’échantillon et le programme d’essai </t>
   </si>
   <si>
     <t xml:space="preserve">6.7.1 Surveillance de la validité des résultats (§7.7.1)
 Liste des points à vérifier</t>
   </si>
   <si>
+    <t xml:space="preserve">sans objet, les dispositions locales sont conformes à l’exigence (planification, participation et analyse de CIL)</t>
+  </si>
+  <si>
     <t xml:space="preserve">6.8.1 Exigences communes relatives aux rapports (§7.8.2)
 Exemples de rédactions types pour les phrases obligatoires des rapports d’essais.</t>
   </si>
   <si>
-    <t xml:space="preserve">Complétude de la documentation</t>
+    <t xml:space="preserve">Exigences à prendre en compte dans nos rapports d’essais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise à jour nos rapports d’essais par rapport aux exigences</t>
   </si>
   <si>
     <t xml:space="preserve">EM000-1</t>
@@ -934,7 +965,10 @@
     <t xml:space="preserve">Glossaire Essais, Mesures et Métrologie</t>
   </si>
   <si>
-    <t xml:space="preserve">-</t>
+    <t xml:space="preserve">Il s’agit de définitions de différents termes. On peut noter toutefois qu’on y trouve l’exigence de l’emploi d’un k=2 pour la détermination d’une incertitude élargie.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Informer les métrologues d’ACF</t>
   </si>
   <si>
     <t xml:space="preserve">EM001</t>
@@ -949,30 +983,40 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Modalités de gestion des compétences</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mettre à jour la documentation du DRIM et des UT.
-Voir les déclinaisons à faire dans les référentiels famille (MD/JB).</t>
+    <t xml:space="preserve">Modification de nos exigences locales en matière de gestion des compétences</t>
   </si>
   <si>
     <t xml:space="preserve">EM002</t>
   </si>
   <si>
-    <t xml:space="preserve">Procédure de validation des méthodes internes Essais et Métrologie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les méthodes normalisées qui ont été modifiées par son utilisateur pour répondre à ses besoins opérationnels ou employées en dehors de son domaine d’application prévu sont à considérer comme des méthodes non reconnues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Précisions sur le périmètre des méthodes non reconnues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voir si on est concerné et s'il faut mettre à jour l’instruction Cofrac du DRIM.
-Etude d’impact à faire rapidement pour la métrologie (validation des méthodes internes).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EM/MD/UT/métro</t>
+    <t xml:space="preserve">Procédure de vérification/ validation des méthodes d’Essais et de Métrologie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Précisions sur les définitions  des méthodes reconnues et non reconnues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pas d’impact pour les essais accrédités (méthodes normalisées)
+Analyse d’impact à faire pour la métrologie (validation des méthodes internes) ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essais : sans objet
+Métrologie : analyse d’impact ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EM002-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modèle confirmation traitement données essai SGI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modèle à utiliser pour la confirmation du traitement des données dans un système de gestion de l’information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- sans objet localement
+- à utiliser au niveau famille des essais béton pour le futur LIMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">au niveau national</t>
   </si>
   <si>
     <t xml:space="preserve">EM003</t>
@@ -982,14 +1026,15 @@
   </si>
   <si>
     <t xml:space="preserve">5.2 : Transmission de la demande d’intervention métrologique au moins 1 mois avant l’échéance.
-« Les CSM ont la responsabilité de veiller au respect des périodicités établies. »
+« Les CSM ont la responsabilité de définir la périodicité de vérification des matériels (en accord avec la métrologie), et de veiller au respect des périodicités établies. »
 Définition des rôles, des exigences documentaires et des enregistrements à fournir. </t>
   </si>
   <si>
-    <t xml:space="preserve">Modalités d'intervention des CMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mettre à jour si nécessaire la documentation du DRIM et des UT.</t>
+    <t xml:space="preserve">Remplacer « correspondant matériel » par « chargé du suivi du matériel (CSM)».
+La nouvelle fonction de CSM est plus exigeante que l’ancienne fonction de correspondant matériel. Néanmoins, pas d’impact chez nous car c’est le RE qui est aussi CSM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mise à jour de notre annexe spécifique COFRAC.</t>
   </si>
   <si>
     <t xml:space="preserve">EM004</t>
@@ -1001,13 +1046,7 @@
     <t xml:space="preserve">Concerne la métrologie</t>
   </si>
   <si>
-    <t xml:space="preserve">à évaluer par métro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">à prendre en compte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">métro</t>
+    <t xml:space="preserve">à évaluer par métrologie</t>
   </si>
   <si>
     <t xml:space="preserve">EM005</t>
@@ -1016,43 +1055,27 @@
     <t xml:space="preserve">Procédure de gestion des réactifs et des consommables</t>
   </si>
   <si>
-    <t xml:space="preserve">5.1.2 Produits confectionnés en interne : mode opératoire ou consigne validée
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exigences relatives à la gestion des produits confectionnés en interne (concerne a priori la chimie et les sols/granulats)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Définir les modalités de conservation (conditions ambiantes, récipient et durée)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UT1 (réactifs, solutions étalons…)
-UT3 (VB, ES)</t>
-  </si>
-  <si>
     <t xml:space="preserve">5.3 : 
-« Les réactifs et consommables ayant une influence sur le résultat d’un essai doivent, dans la mesure du possible et au choix, sans s’y limiter :
+Les réactifs et consommables ayant une influence sur le résultat d’un essai doivent, dans la mesure du possible et au choix, sans s’y limiter :
 · Faire l’objet d’une vérification de conformité par échantillonnage ;
 · Être accompagné d’un certificat de conformité ;
 · Être accompagné d’une FTP.
 Les réactifs et consommables dont les caractéristiques n’ont pas été contrôlées ne doivent pas être utilisés sauf justification argumentée.
-Chaque entité définit les critères de vérification de la conformité des consommables et des réactifs livrés, en cohérence avec ce qui peut être précisé dans le FAMxxx, le cas échéant. »
+Chaque entité définit les critères de vérification de la conformité des consommables et des réactifs livrés, en cohérence avec ce qui peut être précisé dans le référentiel de la famille essais béton, le cas échéant.
 </t>
   </si>
   <si>
     <t xml:space="preserve">Rappel des exigences relatives à la conformité des réactifs et consommables</t>
   </si>
   <si>
-    <t xml:space="preserve">Faire analyse d'impact (ou évaluer en eaudit interne?)</t>
+    <t xml:space="preserve">Mise à jour de l’instruction d’essai Drcm, qui après relecture ne s’avère pas complètement à jour de nos pratiques actuelles et des exigences de la procédure EM005</t>
   </si>
   <si>
     <t xml:space="preserve">5.4 : modalités d’enregistrement recommandées pour les réactifs et consommables</t>
   </si>
   <si>
-    <t xml:space="preserve">Voir le listing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UT1/UT3</t>
+    <t xml:space="preserve">Pas d’impact. 
+Nous n’appliquerons pas ces modalités recommandées, car la gestion de nos consommables ne nécessitent pas de telles dispositions (à confirmer par la métrologie)</t>
   </si>
   <si>
     <t xml:space="preserve">5.6.1 : stocks
@@ -1060,10 +1083,8 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Gestion des ruptures de stock de réactifs et consommables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mise à jour des procédures des UT (quantité minimale à avoir).</t>
+    <t xml:space="preserve">Pas d’impact.
+Les stocks sont suivis annuellement dans le cadre de notre revue qualité annuelle.</t>
   </si>
   <si>
     <t xml:space="preserve">EM006</t>
@@ -1075,19 +1096,49 @@
     <t xml:space="preserve">Rappel des principes généraux pour le calcul d’incertitude.</t>
   </si>
   <si>
+    <t xml:space="preserve">- Essais : pas d’impact. Nos dispositions en terme d’évaluation des incertitudes sont conformes à la procédure EM006
+- Métrologie ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Essais: sans objet.
+- Métrologie: ?</t>
+  </si>
+  <si>
     <t xml:space="preserve">EM007</t>
   </si>
   <si>
     <t xml:space="preserve">Procédure de comparaison de résultats</t>
   </si>
   <si>
-    <t xml:space="preserve">Règles statistiques à prendre en compte pour l'analyse des comparaisons de résultats d'essais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">analyse des résultats des CIL et autres intercomparaisons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">voir comment le prendre en compte pour les futures analyses des CIL et les futures habilitations</t>
+    <t xml:space="preserve">non diffusé mais présent dans le répertoire EM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modalités à prendre en compte pour l'analyse des comparaisons de résultats d'essais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modifie notre mode d’analyse des résultats des CIL.
+A prendre en compte lors de la prochaine analyse.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prendre connaissance des exigences et de la norme citée en référence (NF ISO 13528) pour la définition des termes employées autour de la détermination d’un Zscore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prochaine analyse CIL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCL EM RQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Référentiel Qualité Famille essais béton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">projet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">document en cours de rédaction au 16/01/2026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">analyse d’impact à effectuer</t>
   </si>
   <si>
     <t xml:space="preserve">MET000</t>
@@ -1290,7 +1341,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="49">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1440,6 +1491,50 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1692,12 +1787,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L1048576"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+      <selection pane="bottomLeft" activeCell="C71" activeCellId="0" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66796875" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1709,7 +1804,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="5" width="17.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="5" width="16.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="51.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="24.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="29.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="37.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="29.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="2" width="29.88"/>
@@ -1809,7 +1904,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11"/>
       <c r="B4" s="12" t="s">
         <v>22</v>
@@ -1987,7 +2082,7 @@
         <v>46056</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="23"/>
       <c r="B10" s="12" t="s">
         <v>56</v>
@@ -2193,7 +2288,7 @@
       </c>
       <c r="L16" s="12"/>
     </row>
-    <row r="17" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11"/>
       <c r="B17" s="12" t="s">
         <v>86</v>
@@ -2237,7 +2332,7 @@
       <c r="K18" s="25"/>
       <c r="L18" s="25"/>
     </row>
-    <row r="19" s="1" customFormat="true" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" s="1" customFormat="true" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11"/>
       <c r="B19" s="12" t="s">
         <v>91</v>
@@ -2450,15 +2545,15 @@
       <c r="G25" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="I25" s="13" t="s">
+      <c r="I25" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="J25" s="15"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
     </row>
     <row r="26" customFormat="false" ht="186" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="23"/>
@@ -2526,14 +2621,15 @@
         <v>46056</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="58.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="29" t="s">
+    <row r="28" customFormat="false" ht="92.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="18"/>
+      <c r="B28" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="D28" s="29" t="n">
+      <c r="D28" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E28" s="15" t="n">
@@ -2545,110 +2641,110 @@
       <c r="G28" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="I28" s="13" t="s">
+      <c r="I28" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="J28" s="15" t="n">
-        <v>45965</v>
+      <c r="J28" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="L28" s="13"/>
-    </row>
-    <row r="29" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="29"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="29"/>
+        <v>83</v>
+      </c>
+      <c r="L28" s="35" t="n">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="58.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="18"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="14"/>
       <c r="E29" s="15"/>
       <c r="F29" s="15"/>
       <c r="G29" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="H29" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="H29" s="13" t="s">
+      <c r="I29" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="I29" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="J29" s="15"/>
-      <c r="K29" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="L29" s="19"/>
-    </row>
-    <row r="30" customFormat="false" ht="161.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="29"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="29"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="115.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="18"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
       <c r="G30" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="H30" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="I30" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="I30" s="13" t="s">
+      <c r="J30" s="13"/>
+      <c r="K30" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="J30" s="15"/>
-      <c r="K30" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="L30" s="13"/>
-    </row>
-    <row r="31" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="12" t="s">
+      <c r="L30" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="C31" s="13" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="196.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="18"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="D31" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E31" s="15" t="n">
-        <v>45964</v>
-      </c>
-      <c r="F31" s="15" t="n">
-        <v>45964</v>
-      </c>
-      <c r="G31" s="13" t="s">
+      <c r="H31" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="H31" s="13" t="s">
+      <c r="I31" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="I31" s="13" t="s">
+      <c r="J31" s="13"/>
+      <c r="K31" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="J31" s="15" t="n">
-        <v>45965</v>
-      </c>
-      <c r="K31" s="13" t="s">
+      <c r="L31" s="38" t="n">
+        <v>46112</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="124.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="23"/>
+      <c r="B32" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="L31" s="13"/>
-    </row>
-    <row r="32" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="12" t="s">
+      <c r="C32" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="D32" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="D32" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E32" s="15" t="n">
-        <v>45964</v>
+      <c r="E32" s="39" t="n">
+        <v>46027</v>
       </c>
       <c r="F32" s="15" t="n">
-        <v>45964</v>
+        <v>46027</v>
       </c>
       <c r="G32" s="13" t="s">
         <v>149</v>
@@ -2659,20 +2755,23 @@
       <c r="I32" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="J32" s="15" t="n">
-        <v>45965</v>
+      <c r="J32" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="L32" s="13"/>
-    </row>
-    <row r="33" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>152</v>
+      </c>
+      <c r="L32" s="40" t="n">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="23"/>
       <c r="B33" s="12" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D33" s="14" t="n">
         <v>1</v>
@@ -2684,28 +2783,31 @@
         <v>45964</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>155</v>
+        <v>21</v>
       </c>
       <c r="I33" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="55.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="23"/>
+      <c r="B34" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="J33" s="15" t="n">
-        <v>45965</v>
-      </c>
-      <c r="K33" s="13" t="s">
+      <c r="C34" s="13" t="s">
         <v>157</v>
-      </c>
-      <c r="L33" s="13"/>
-    </row>
-    <row r="34" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>153</v>
       </c>
       <c r="D34" s="14" t="n">
         <v>1</v>
@@ -2717,30 +2819,33 @@
         <v>45964</v>
       </c>
       <c r="G34" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H34" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="I34" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="I34" s="13" t="s">
+      <c r="J34" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="L34" s="40" t="n">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="138.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="23"/>
+      <c r="B35" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="J34" s="15" t="n">
-        <v>45965</v>
-      </c>
-      <c r="K34" s="13" t="s">
+      <c r="C35" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="L34" s="13"/>
-    </row>
-    <row r="35" customFormat="false" ht="69.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>164</v>
-      </c>
-      <c r="D35" s="29" t="n">
+      <c r="D35" s="14" t="n">
         <v>1</v>
       </c>
       <c r="E35" s="15" t="n">
@@ -2750,130 +2855,166 @@
         <v>45964</v>
       </c>
       <c r="G35" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="I35" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13" t="s">
+      <c r="J35" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="L35" s="40" t="n">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="23"/>
+      <c r="B36" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="J35" s="15" t="n">
-        <v>45965</v>
-      </c>
-      <c r="K35" s="13" t="s">
+      <c r="C36" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D36" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" s="15" t="n">
+        <v>45964</v>
+      </c>
+      <c r="F36" s="15" t="n">
+        <v>45964</v>
+      </c>
+      <c r="G36" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="L35" s="13"/>
-    </row>
-    <row r="36" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="29"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="13" t="s">
+      <c r="H36" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="J36" s="15" t="n">
-        <v>45965</v>
-      </c>
-      <c r="K36" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="L36" s="13"/>
-    </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-    </row>
-    <row r="38" customFormat="false" ht="46.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="29" t="s">
+      <c r="I36" s="13"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="13"/>
+      <c r="L36" s="40"/>
+    </row>
+    <row r="37" customFormat="false" ht="69.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="41"/>
+      <c r="B37" s="29" t="s">
         <v>169</v>
       </c>
-      <c r="C38" s="30" t="s">
+      <c r="C37" s="30" t="s">
         <v>170</v>
       </c>
-      <c r="D38" s="29" t="n">
+      <c r="D37" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" s="15" t="n">
+        <v>45964</v>
+      </c>
+      <c r="F37" s="15" t="n">
+        <v>45964</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="L37" s="40" t="n">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="41"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="L38" s="40" t="n">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+    </row>
+    <row r="40" customFormat="false" ht="46.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A40" s="41"/>
+      <c r="B40" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" s="29" t="n">
         <v>3</v>
       </c>
-      <c r="E38" s="15" t="n">
+      <c r="E40" s="15" t="n">
         <v>45974</v>
       </c>
-      <c r="F38" s="15" t="n">
+      <c r="F40" s="15" t="n">
         <v>45974</v>
       </c>
-      <c r="G38" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>173</v>
-      </c>
-      <c r="J38" s="15" t="n">
-        <v>45981</v>
-      </c>
-      <c r="K38" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="L38" s="13"/>
-    </row>
-    <row r="39" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="29"/>
-      <c r="C39" s="30"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="H39" s="13" t="s">
-        <v>176</v>
-      </c>
-      <c r="I39" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="J39" s="15"/>
-      <c r="K39" s="13" t="s">
+      <c r="G40" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="L39" s="13"/>
-    </row>
-    <row r="40" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="29"/>
-      <c r="C40" s="30"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="13" t="s">
+      <c r="H40" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="H40" s="13" t="s">
+      <c r="I40" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="I40" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="J40" s="15"/>
+      <c r="J40" s="43" t="s">
+        <v>27</v>
+      </c>
       <c r="K40" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="L40" s="13"/>
-    </row>
-    <row r="41" customFormat="false" ht="223.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>152</v>
+      </c>
+      <c r="L40" s="40" t="n">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="48" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="41"/>
       <c r="B41" s="29"/>
       <c r="C41" s="30"/>
       <c r="D41" s="29"/>
@@ -2888,13 +3029,12 @@
       <c r="I41" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="J41" s="15"/>
-      <c r="K41" s="13" t="s">
-        <v>174</v>
-      </c>
+      <c r="J41" s="43"/>
+      <c r="K41" s="13"/>
       <c r="L41" s="13"/>
     </row>
-    <row r="42" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="41"/>
       <c r="B42" s="29"/>
       <c r="C42" s="30"/>
       <c r="D42" s="29"/>
@@ -2904,18 +3044,17 @@
         <v>184</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="J42" s="15"/>
-      <c r="K42" s="13" t="s">
-        <v>174</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="J42" s="43"/>
+      <c r="K42" s="13"/>
       <c r="L42" s="13"/>
     </row>
-    <row r="43" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="158.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A43" s="41"/>
       <c r="B43" s="29"/>
       <c r="C43" s="30"/>
       <c r="D43" s="29"/>
@@ -2928,147 +3067,149 @@
         <v>187</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="J43" s="15"/>
+        <v>21</v>
+      </c>
+      <c r="J43" s="43" t="s">
+        <v>21</v>
+      </c>
       <c r="K43" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="L43" s="13"/>
+        <v>21</v>
+      </c>
+      <c r="L43" s="13" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="41"/>
       <c r="B44" s="29"/>
       <c r="C44" s="30"/>
       <c r="D44" s="29"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
       <c r="G44" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="H44" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="H44" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="I44" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="J44" s="15"/>
-      <c r="K44" s="13" t="s">
-        <v>190</v>
-      </c>
+      <c r="I44" s="13"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="13"/>
       <c r="L44" s="13"/>
     </row>
-    <row r="45" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="41"/>
       <c r="B45" s="29"/>
       <c r="C45" s="30"/>
       <c r="D45" s="29"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
       <c r="G45" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="H45" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="H45" s="13" t="s">
-        <v>187</v>
-      </c>
       <c r="I45" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="J45" s="15"/>
+        <v>192</v>
+      </c>
+      <c r="J45" s="43" t="s">
+        <v>27</v>
+      </c>
       <c r="K45" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="L45" s="13"/>
-    </row>
-    <row r="46" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+      <c r="L45" s="38" t="n">
+        <v>46112</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="57.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="41"/>
       <c r="B46" s="29"/>
       <c r="C46" s="30"/>
       <c r="D46" s="29"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
       <c r="G46" s="13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="J46" s="15"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="13"/>
-    </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="J46" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="L46" s="38" t="n">
+        <v>46112</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="41"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="13" t="s">
         <v>195</v>
-      </c>
-      <c r="D47" s="14"/>
-      <c r="E47" s="15" t="n">
-        <v>45974</v>
-      </c>
-      <c r="F47" s="15" t="n">
-        <v>45974</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>196</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>196</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="J47" s="15" t="n">
-        <v>45981</v>
-      </c>
-      <c r="K47" s="13"/>
-      <c r="L47" s="13"/>
-    </row>
-    <row r="48" customFormat="false" ht="151.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L47" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="41"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="C48" s="13" t="s">
+      <c r="H48" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="D48" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E48" s="15" t="n">
-        <v>45974</v>
-      </c>
-      <c r="F48" s="15" t="n">
-        <v>45974</v>
-      </c>
-      <c r="G48" s="13" t="s">
+      <c r="I48" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="H48" s="13" t="s">
+      <c r="J48" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="K48" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="L48" s="38" t="n">
+        <v>46112</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="35.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="23"/>
+      <c r="B49" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="I48" s="13" t="s">
+      <c r="C49" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="J48" s="15" t="n">
-        <v>45981</v>
-      </c>
-      <c r="K48" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="L48" s="13"/>
-    </row>
-    <row r="49" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="D49" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="D49" s="14"/>
       <c r="E49" s="15" t="n">
         <v>45974</v>
       </c>
@@ -3076,28 +3217,31 @@
         <v>45974</v>
       </c>
       <c r="G49" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="J49" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K49" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L49" s="40" t="n">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="151.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="23"/>
+      <c r="B50" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="H49" s="13" t="s">
+      <c r="C50" s="13" t="s">
         <v>205</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="J49" s="15" t="n">
-        <v>45981</v>
-      </c>
-      <c r="K49" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="L49" s="13"/>
-    </row>
-    <row r="50" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>209</v>
       </c>
       <c r="D50" s="14" t="n">
         <v>1</v>
@@ -3109,28 +3253,31 @@
         <v>45974</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="J50" s="15" t="n">
-        <v>45981</v>
+        <v>192</v>
+      </c>
+      <c r="J50" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="K50" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="L50" s="13"/>
-    </row>
-    <row r="51" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>50</v>
+      </c>
+      <c r="L50" s="38" t="n">
+        <v>46112</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="23"/>
       <c r="B51" s="12" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D51" s="14" t="n">
         <v>1</v>
@@ -3141,289 +3288,342 @@
       <c r="F51" s="15" t="n">
         <v>45974</v>
       </c>
-      <c r="G51" s="12" t="s">
+      <c r="G51" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="H51" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="J51" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K51" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="L51" s="38" t="n">
+        <v>46112</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="23"/>
+      <c r="B52" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="D52" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E52" s="15" t="n">
+        <v>46010</v>
+      </c>
+      <c r="F52" s="15" t="n">
+        <v>46010</v>
+      </c>
+      <c r="G52" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="H51" s="19" t="s">
+      <c r="H52" s="19" t="s">
         <v>216</v>
       </c>
-      <c r="I51" s="19" t="s">
+      <c r="I52" s="19" t="s">
         <v>217</v>
       </c>
-      <c r="J51" s="15" t="n">
-        <v>45981</v>
-      </c>
-      <c r="K51" s="13" t="s">
+      <c r="J52" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L52" s="40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="104.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="23"/>
+      <c r="B53" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="L51" s="13"/>
-    </row>
-    <row r="52" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="29" t="s">
+      <c r="C53" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="C52" s="30" t="s">
+      <c r="D53" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E53" s="15" t="n">
+        <v>45974</v>
+      </c>
+      <c r="F53" s="15" t="n">
+        <v>45974</v>
+      </c>
+      <c r="G53" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="D52" s="29" t="n">
+      <c r="H53" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="J53" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K53" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="L53" s="40" t="n">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="D54" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="E52" s="15" t="n">
+      <c r="E54" s="15" t="n">
         <v>45974</v>
       </c>
-      <c r="F52" s="15" t="n">
+      <c r="F54" s="15" t="n">
         <v>45974</v>
       </c>
-      <c r="G52" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="H52" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="I52" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="J52" s="15" t="n">
-        <v>45981</v>
-      </c>
-      <c r="K52" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="L52" s="13"/>
-    </row>
-    <row r="53" customFormat="false" ht="261" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="29"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="13" t="s">
+      <c r="G54" s="21" t="s">
         <v>225</v>
       </c>
-      <c r="H53" s="13" t="s">
+      <c r="H54" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="I53" s="19" t="s">
+      <c r="I54" s="19"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="19"/>
+    </row>
+    <row r="55" customFormat="false" ht="239.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="41"/>
+      <c r="B55" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="J53" s="15"/>
-      <c r="K53" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="L53" s="13"/>
-    </row>
-    <row r="54" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="29"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="13" t="s">
+      <c r="C55" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13" t="s">
+      <c r="D55" s="29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E55" s="43" t="n">
+        <v>45974</v>
+      </c>
+      <c r="F55" s="43" t="n">
+        <v>45974</v>
+      </c>
+      <c r="G55" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="J54" s="15"/>
-      <c r="K54" s="13" t="s">
+      <c r="H55" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="L54" s="13"/>
-    </row>
-    <row r="55" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="29"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="13" t="s">
+      <c r="I55" s="13" t="s">
         <v>231</v>
       </c>
-      <c r="H55" s="13" t="s">
+      <c r="J55" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K55" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L55" s="38" t="n">
+        <v>46112</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="91.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="41"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="43"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="I55" s="13" t="s">
+      <c r="H56" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="J55" s="15"/>
-      <c r="K55" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="L55" s="13"/>
-    </row>
-    <row r="56" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="12" t="s">
+      <c r="I56" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J56" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="K56" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="L56" s="40" t="n">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="57.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="41"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="43"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="H57" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="D56" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E56" s="15" t="n">
-        <v>45974</v>
-      </c>
-      <c r="F56" s="15" t="n">
-        <v>45974</v>
-      </c>
-      <c r="G56" s="13" t="s">
+      <c r="I57" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J57" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L57" s="40" t="n">
+        <v>46056</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="102.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="23"/>
+      <c r="B58" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="H56" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="I56" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="J56" s="15" t="n">
-        <v>45981</v>
-      </c>
-      <c r="K56" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="L56" s="13"/>
-    </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="25"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="27"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
-    </row>
-    <row r="58" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="12" t="s">
+      <c r="C58" s="13" t="s">
         <v>237</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>238</v>
       </c>
       <c r="D58" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="E58" s="37"/>
+      <c r="E58" s="15" t="n">
+        <v>45974</v>
+      </c>
       <c r="F58" s="15" t="n">
         <v>45974</v>
       </c>
       <c r="G58" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="H58" s="19" t="s">
         <v>239</v>
       </c>
-      <c r="H58" s="13" t="s">
+      <c r="I58" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="I58" s="19" t="s">
+      <c r="J58" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="K58" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L58" s="13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="60.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="23"/>
+      <c r="B59" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="J58" s="14"/>
-      <c r="K58" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="L58" s="13"/>
-    </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="25"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="25"/>
-      <c r="H59" s="25"/>
-      <c r="I59" s="25"/>
-      <c r="J59" s="27"/>
-      <c r="K59" s="25"/>
-      <c r="L59" s="25"/>
+      <c r="C59" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D59" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E59" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="F59" s="15" t="n">
+        <v>45974</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="I59" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="J59" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="K59" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="L59" s="13" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="D60" s="14" t="n">
-        <v>8</v>
-      </c>
-      <c r="E60" s="15" t="n">
-        <v>46001</v>
-      </c>
-      <c r="F60" s="15" t="n">
-        <v>45999</v>
-      </c>
-      <c r="G60" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="12"/>
-      <c r="L60" s="12"/>
-    </row>
-    <row r="61" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="D61" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E61" s="15" t="n">
-        <v>46001</v>
-      </c>
-      <c r="F61" s="15" t="n">
-        <v>45999</v>
-      </c>
-      <c r="G61" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="12"/>
-      <c r="L61" s="12"/>
+      <c r="B60" s="25"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+    </row>
+    <row r="61" customFormat="false" ht="21.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B61" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="C61" s="46" t="s">
+        <v>249</v>
+      </c>
+      <c r="D61" s="47" t="s">
+        <v>250</v>
+      </c>
+      <c r="E61" s="48"/>
+      <c r="F61" s="48"/>
+      <c r="G61" s="45" t="s">
+        <v>251</v>
+      </c>
+      <c r="H61" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="I61" s="45"/>
+      <c r="J61" s="47"/>
+      <c r="K61" s="45"/>
+      <c r="L61" s="45"/>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="D62" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="E62" s="15" t="n">
-        <v>46001</v>
-      </c>
-      <c r="F62" s="15" t="n">
-        <v>45999</v>
-      </c>
-      <c r="G62" s="21" t="s">
-        <v>244</v>
-      </c>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
+      <c r="B62" s="25"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25"/>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="12" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D63" s="14" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E63" s="15" t="n">
         <v>46001</v>
@@ -3432,7 +3632,7 @@
         <v>45999</v>
       </c>
       <c r="G63" s="21" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="H63" s="12"/>
       <c r="I63" s="12"/>
@@ -3442,10 +3642,10 @@
     </row>
     <row r="64" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="12" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D64" s="14" t="n">
         <v>1</v>
@@ -3457,7 +3657,7 @@
         <v>45999</v>
       </c>
       <c r="G64" s="21" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="H64" s="12"/>
       <c r="I64" s="12"/>
@@ -3465,12 +3665,12 @@
       <c r="K64" s="12"/>
       <c r="L64" s="12"/>
     </row>
-    <row r="65" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="12" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="D65" s="14" t="n">
         <v>1</v>
@@ -3482,7 +3682,7 @@
         <v>45999</v>
       </c>
       <c r="G65" s="21" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="H65" s="12"/>
       <c r="I65" s="12"/>
@@ -3492,10 +3692,10 @@
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="12" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D66" s="14" t="n">
         <v>1</v>
@@ -3507,7 +3707,7 @@
         <v>45999</v>
       </c>
       <c r="G66" s="21" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="H66" s="12"/>
       <c r="I66" s="12"/>
@@ -3517,13 +3717,13 @@
     </row>
     <row r="67" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="12" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D67" s="14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E67" s="15" t="n">
         <v>46001</v>
@@ -3532,7 +3732,7 @@
         <v>45999</v>
       </c>
       <c r="G67" s="21" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="H67" s="12"/>
       <c r="I67" s="12"/>
@@ -3540,10 +3740,84 @@
       <c r="K67" s="12"/>
       <c r="L67" s="12"/>
     </row>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="D68" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E68" s="15" t="n">
+        <v>46001</v>
+      </c>
+      <c r="F68" s="15" t="n">
+        <v>45999</v>
+      </c>
+      <c r="G68" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="14"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+    </row>
+    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D69" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="E69" s="15" t="n">
+        <v>46001</v>
+      </c>
+      <c r="F69" s="15" t="n">
+        <v>45999</v>
+      </c>
+      <c r="G69" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+    </row>
+    <row r="70" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="D70" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E70" s="15" t="n">
+        <v>46001</v>
+      </c>
+      <c r="F70" s="15" t="n">
+        <v>45999</v>
+      </c>
+      <c r="G70" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+    </row>
+    <row r="71" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="47">
     <mergeCell ref="D2:D17"/>
     <mergeCell ref="E2:E17"/>
     <mergeCell ref="F2:F17"/>
@@ -3555,30 +3829,42 @@
     <mergeCell ref="J20:J21"/>
     <mergeCell ref="K20:K21"/>
     <mergeCell ref="L20:L21"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="C28:C30"/>
-    <mergeCell ref="D28:D30"/>
-    <mergeCell ref="E28:E30"/>
-    <mergeCell ref="F28:F30"/>
-    <mergeCell ref="J28:J30"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B38:B46"/>
-    <mergeCell ref="C38:C46"/>
-    <mergeCell ref="D38:D46"/>
-    <mergeCell ref="E38:E46"/>
-    <mergeCell ref="F38:F46"/>
-    <mergeCell ref="J38:J46"/>
-    <mergeCell ref="B52:B55"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="E52:E55"/>
-    <mergeCell ref="F52:F55"/>
-    <mergeCell ref="J52:J55"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A40:A48"/>
+    <mergeCell ref="B40:B48"/>
+    <mergeCell ref="C40:C48"/>
+    <mergeCell ref="D40:D48"/>
+    <mergeCell ref="E40:E48"/>
+    <mergeCell ref="F40:F48"/>
+    <mergeCell ref="J40:J42"/>
+    <mergeCell ref="K40:K42"/>
+    <mergeCell ref="L40:L42"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="J43:J44"/>
+    <mergeCell ref="K43:K44"/>
+    <mergeCell ref="L43:L44"/>
+    <mergeCell ref="A55:A57"/>
+    <mergeCell ref="B55:B57"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="D55:D57"/>
+    <mergeCell ref="E55:E57"/>
+    <mergeCell ref="F55:F57"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
